--- a/Data/Lab-linked/FarmerPlots.xlsx
+++ b/Data/Lab-linked/FarmerPlots.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="SpeichEarly" sheetId="1" r:id="rId1"/>
+    <sheet name="SpeichLate" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="44">
   <si>
     <t>Farmer</t>
   </si>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,12 +1163,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7">
+        <v>17140.800999999999</v>
+      </c>
+      <c r="H2" s="17">
+        <v>42519.506944444445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43903.300999999999</v>
+      </c>
+      <c r="H3" s="17">
+        <v>42454.00277777778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9">
+        <v>29073.1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42519.506944444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9">
+        <v>9452.5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>42474.577777777777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8369.2001999999993</v>
+      </c>
+      <c r="H6" s="17">
+        <v>42519.506944444445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9">
+        <v>13776.5</v>
+      </c>
+      <c r="H7" s="17">
+        <v>42474.577777777777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9">
+        <v>17448.599999999999</v>
+      </c>
+      <c r="H8" s="17">
+        <v>42474.577777777777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9">
+        <v>10682.2</v>
+      </c>
+      <c r="H9" s="17">
+        <v>42519.506944444445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2965.98</v>
+      </c>
+      <c r="H10" s="17">
+        <v>42474.577777777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3360.51</v>
+      </c>
+      <c r="H11" s="17">
+        <v>42519.506944444445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9">
+        <v>5336.0801000000001</v>
+      </c>
+      <c r="H12" s="17">
+        <v>42474.577777777777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9">
+        <v>7356.8301000000001</v>
+      </c>
+      <c r="H13" s="17">
+        <v>42474.577777777777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7">
+        <v>14204.8</v>
+      </c>
+      <c r="H14" s="17">
+        <v>42454.00277777778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9">
+        <v>9383.6396000000004</v>
+      </c>
+      <c r="H15" s="17">
+        <v>42519.506944444445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1165.4301</v>
+      </c>
+      <c r="H16" s="17">
+        <v>42474.577777777777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7">
+        <v>21751.5</v>
+      </c>
+      <c r="H17" s="17">
+        <v>42454.00277777778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7">
+        <v>15022.6</v>
+      </c>
+      <c r="H18" s="17">
+        <v>42454.00277777778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7">
+        <v>54313.800999999999</v>
+      </c>
+      <c r="H19" s="17">
+        <v>42454.00277777778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9">
+        <v>24869.1</v>
+      </c>
+      <c r="H20" s="17">
+        <v>42474.577777777777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="14">
+        <v>15</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="16">
+        <v>15697.6</v>
+      </c>
+      <c r="H21" s="17">
+        <v>42454.00277777778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="4">
+        <v>70</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7">
+        <v>6040.2201999999997</v>
+      </c>
+      <c r="H22" s="17">
+        <v>42519.506944444445</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
